--- a/results.xlsx
+++ b/results.xlsx
@@ -750,22 +750,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.9779</t>
+          <t>0.9692</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.7035</t>
+          <t>0.5739</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2006</t>
+          <t>0.2370</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.5669</t>
+          <t>0.6796</t>
         </is>
       </c>
     </row>
@@ -792,22 +792,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.9491</t>
+          <t>0.9534</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.0586</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0204</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.0861</t>
+          <t>0.0886</t>
         </is>
       </c>
     </row>
@@ -834,22 +834,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.9553</t>
+          <t>0.9533</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.0731</t>
+          <t>0.1167</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1823</t>
+          <t>0.1863</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.7201</t>
+          <t>0.7029</t>
         </is>
       </c>
     </row>
@@ -876,22 +876,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.9112</t>
+          <t>0.8945</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1585538366131787253281718272.0000</t>
+          <t>-1448534589722500441491636224.0000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.0354</t>
+          <t>0.0338</t>
         </is>
       </c>
     </row>
@@ -918,22 +918,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.9530</t>
+          <t>0.9552</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.1929</t>
+          <t>0.1772</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7.5919</t>
+          <t>7.4153</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>28.4854</t>
+          <t>28.7599</t>
         </is>
       </c>
     </row>
@@ -960,22 +960,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.9539</t>
+          <t>0.9564</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.1980</t>
+          <t>0.1803</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17.4090</t>
+          <t>16.9292</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>64.6378</t>
+          <t>65.3491</t>
         </is>
       </c>
     </row>
@@ -1002,22 +1002,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.7409</t>
+          <t>0.4003</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.0576</t>
+          <t>-0.4838</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.6875</t>
+          <t>1.0459</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.0707</t>
+          <t>1.2682</t>
         </is>
       </c>
     </row>
@@ -1044,22 +1044,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-37.5106</t>
+          <t>-97.4604</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-18.3436</t>
+          <t>-156.7613</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.5866</t>
+          <t>0.9379</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.3905</t>
+          <t>1.1152</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.3468</t>
+          <t>0.6071</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.4202</t>
+          <t>-0.4365</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.6970</t>
+          <t>0.5406</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.8913</t>
+          <t>0.8964</t>
         </is>
       </c>
     </row>
@@ -1128,22 +1128,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-16.0274</t>
+          <t>-77.8101</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-219263909130913374147388112896.0000</t>
+          <t>-273579308249733940280008114176.0000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2139</t>
+          <t>0.4602</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.4159</t>
+          <t>0.4646</t>
         </is>
       </c>
     </row>
@@ -1170,22 +1170,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-2.3966</t>
+          <t>-2.8241</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-5.2091</t>
+          <t>-5.2464</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>64.5583</t>
+          <t>68.5007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>79.0062</t>
+          <t>79.2436</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1212,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.9285</t>
+          <t>0.8568</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.8749</t>
+          <t>0.8229</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21.6852</t>
+          <t>30.6781</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>25.5297</t>
+          <t>30.3739</t>
         </is>
       </c>
     </row>
@@ -1506,22 +1506,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.9573</t>
+          <t>0.9650</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.6643</t>
+          <t>0.6356</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.2792</t>
+          <t>0.2528</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.6032</t>
+          <t>0.6284</t>
         </is>
       </c>
     </row>
@@ -1548,22 +1548,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.9908</t>
+          <t>0.9936</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.6145</t>
+          <t>0.5989</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.0551</t>
+          <t>0.0562</t>
         </is>
       </c>
     </row>
@@ -1590,22 +1590,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.9539</t>
+          <t>0.9707</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.2245</t>
+          <t>0.1968</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.1852</t>
+          <t>0.1476</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.6586</t>
+          <t>0.6703</t>
         </is>
       </c>
     </row>
@@ -1632,22 +1632,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.9465</t>
+          <t>0.9545</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-535923669142747663740960768.0000</t>
+          <t>-513008446753996162331574272.0000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.0201</t>
         </is>
       </c>
     </row>
@@ -1674,22 +1674,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.9957</t>
+          <t>0.9955</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.6641</t>
+          <t>0.6495</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2.2945</t>
+          <t>2.3471</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>18.3753</t>
+          <t>18.7718</t>
         </is>
       </c>
     </row>
@@ -1716,22 +1716,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.9956</t>
+          <t>0.9959</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.6602</t>
+          <t>0.6418</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5.3657</t>
+          <t>5.1718</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>42.0773</t>
+          <t>43.2009</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1758,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.6699</t>
+          <t>-0.4791</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.2359</t>
+          <t>-0.3123</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.7760</t>
+          <t>1.6426</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.9101</t>
+          <t>1.1927</t>
         </is>
       </c>
     </row>
@@ -1800,22 +1800,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-1.3588</t>
+          <t>-2.3111</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-1.0001</t>
+          <t>-1.5132</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.1452</t>
+          <t>0.1720</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.1256</t>
+          <t>0.1408</t>
         </is>
       </c>
     </row>
@@ -1842,22 +1842,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.5018</t>
+          <t>-0.5590</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-0.3033</t>
+          <t>-1.8864</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.6086</t>
+          <t>1.0767</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.8538</t>
+          <t>1.2706</t>
         </is>
       </c>
     </row>
@@ -1884,22 +1884,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-996.5876</t>
+          <t>-77.3012</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-2803513808794341740533252096000.0000</t>
+          <t>-199208112945444690702708506624.0000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.6373</t>
+          <t>0.4587</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1.4871</t>
+          <t>0.3964</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1926,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.4805</t>
+          <t>0.2605</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.1458</t>
+          <t>-0.1248</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>25.2465</t>
+          <t>30.1230</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>29.3042</t>
+          <t>33.6273</t>
         </is>
       </c>
     </row>
@@ -1968,22 +1968,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.9386</t>
+          <t>0.8976</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.7831</t>
+          <t>0.6358</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20.0882</t>
+          <t>25.9502</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>33.6181</t>
+          <t>43.5558</t>
         </is>
       </c>
     </row>
@@ -2262,22 +2262,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.9615</t>
+          <t>0.9702</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.6704</t>
+          <t>0.6096</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.2651</t>
+          <t>0.2333</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.5977</t>
+          <t>0.6506</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2304,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.9924</t>
+          <t>0.9930</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.6209</t>
+          <t>0.5324</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.0547</t>
+          <t>0.0607</t>
         </is>
       </c>
     </row>
@@ -2346,22 +2346,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.9665</t>
+          <t>0.9664</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.1879</t>
+          <t>0.1378</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.1579</t>
+          <t>0.1581</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.6740</t>
+          <t>0.6945</t>
         </is>
       </c>
     </row>
@@ -2388,22 +2388,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.9477</t>
+          <t>0.9490</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-604181778385789454590672896.0000</t>
+          <t>-718660378744864286787502080.0000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.0218</t>
+          <t>0.0238</t>
         </is>
       </c>
     </row>
@@ -2430,22 +2430,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.9948</t>
+          <t>0.9946</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.6728</t>
+          <t>0.6002</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2.5219</t>
+          <t>2.5645</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>18.1360</t>
+          <t>20.0481</t>
         </is>
       </c>
     </row>
@@ -2472,22 +2472,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.9946</t>
+          <t>0.9948</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.6650</t>
+          <t>0.5872</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>5.9629</t>
+          <t>5.8361</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>41.7779</t>
+          <t>46.3720</t>
         </is>
       </c>
     </row>
@@ -2514,22 +2514,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-4.2302</t>
+          <t>0.7982</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-58.9203</t>
+          <t>-33.3068</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3.0888</t>
+          <t>0.6067</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>8.0591</t>
+          <t>6.0981</t>
         </is>
       </c>
     </row>
@@ -2556,22 +2556,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-473.0733</t>
+          <t>-24.8098</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-6858.1984</t>
+          <t>-11012.7677</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2.0580</t>
+          <t>0.4802</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>7.3532</t>
+          <t>9.3177</t>
         </is>
       </c>
     </row>
@@ -2598,22 +2598,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.7300</t>
+          <t>0.8196</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-24.6943</t>
+          <t>-62.5185</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.4481</t>
+          <t>0.3662</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>3.7910</t>
+          <t>5.9606</t>
         </is>
       </c>
     </row>
@@ -2640,22 +2640,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-24.4543</t>
+          <t>-2858.1719</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-151496691034236642481491901677568.0000</t>
+          <t>-67433269815363215105485170540544.0000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.2615</t>
+          <t>2.7719</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10.9321</t>
+          <t>7.2935</t>
         </is>
       </c>
     </row>
@@ -2682,22 +2682,22 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.9997</t>
+          <t>0.9991</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-283.1052</t>
+          <t>-285.9257</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.5999</t>
+          <t>1.0701</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>534.4263</t>
+          <t>537.0726</t>
         </is>
       </c>
     </row>
@@ -2724,22 +2724,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>0.9998</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.5150</t>
+          <t>0.5367</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.5382</t>
+          <t>1.0182</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>50.2652</t>
+          <t>49.1266</t>
         </is>
       </c>
     </row>
@@ -3018,22 +3018,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.9499</t>
+          <t>0.9763</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.6659</t>
+          <t>0.7121</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.3022</t>
+          <t>0.2079</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.6018</t>
+          <t>0.5586</t>
         </is>
       </c>
     </row>
@@ -3060,22 +3060,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.9916</t>
+          <t>0.9939</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.9223</t>
+          <t>0.9356</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>0.0225</t>
         </is>
       </c>
     </row>
@@ -3102,22 +3102,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.9498</t>
+          <t>0.9606</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.7269</t>
+          <t>0.7154</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.1933</t>
+          <t>0.1712</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.3908</t>
+          <t>0.3990</t>
         </is>
       </c>
     </row>
@@ -3144,22 +3144,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.9337</t>
+          <t>0.9269</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-527927719202823737232588800.0000</t>
+          <t>-431683785170114036862287872.0000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.0133</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.0204</t>
+          <t>0.0185</t>
         </is>
       </c>
     </row>
@@ -3186,22 +3186,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.9955</t>
+          <t>0.9976</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.9753</t>
+          <t>0.9802</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2.3604</t>
+          <t>1.7247</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4.9790</t>
+          <t>4.4632</t>
         </is>
       </c>
     </row>
@@ -3228,22 +3228,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.9971</t>
+          <t>0.9984</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.9850</t>
+          <t>0.9888</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4.3364</t>
+          <t>3.2612</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>8.8342</t>
+          <t>7.6282</t>
         </is>
       </c>
     </row>
@@ -3270,22 +3270,22 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-1.0844</t>
+          <t>-0.9277</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-5.1723</t>
+          <t>-4.7968</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.9500</t>
+          <t>1.8752</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2.5866</t>
+          <t>2.5067</t>
         </is>
       </c>
     </row>
@@ -3312,22 +3312,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-0.0393</t>
+          <t>0.0493</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-1.5416</t>
+          <t>-0.4438</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.0964</t>
+          <t>0.0922</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.1415</t>
+          <t>0.1067</t>
         </is>
       </c>
     </row>
@@ -3354,22 +3354,22 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-0.0467</t>
+          <t>-0.1471</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-1.9313</t>
+          <t>-2.0172</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.8822</t>
+          <t>0.9236</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1.2805</t>
+          <t>1.2991</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3396,22 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-72.2186</t>
+          <t>-28.8478</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-249304467127968035867019182080.0000</t>
+          <t>-510152042896964441373795155968.0000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.4436</t>
+          <t>0.2832</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.4435</t>
+          <t>0.6344</t>
         </is>
       </c>
     </row>
@@ -3438,22 +3438,22 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-24.1256</t>
+          <t>-8.9092</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-76.8408</t>
+          <t>-44.7312</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>175.5845</t>
+          <t>110.2675</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>279.7383</t>
+          <t>214.4147</t>
         </is>
       </c>
     </row>
@@ -3480,22 +3480,22 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-0.3482</t>
+          <t>-0.3590</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>81.0266</t>
+          <t>80.8554</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>83.8085</t>
+          <t>84.1417</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -498,22 +498,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.9968</t>
+          <t>0.9948</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.5676</t>
+          <t>0.5007</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0762</t>
+          <t>0.0975</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.6846</t>
+          <t>0.7357</t>
         </is>
       </c>
     </row>
@@ -540,22 +540,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.9954</t>
+          <t>0.9927</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.5758</t>
+          <t>0.6979</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0488</t>
         </is>
       </c>
     </row>
@@ -582,22 +582,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.9942</t>
+          <t>0.9929</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.3702</t>
+          <t>0.4905</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0657</t>
+          <t>0.0728</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.5935</t>
+          <t>0.5339</t>
         </is>
       </c>
     </row>
@@ -624,22 +624,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.9940</t>
+          <t>0.9927</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1105724793729983709452435456.0000</t>
+          <t>-619747327145638493914398720.0000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.0295</t>
+          <t>0.0221</t>
         </is>
       </c>
     </row>
@@ -666,22 +666,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.9974</t>
+          <t>0.9959</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.8865</t>
+          <t>0.9340</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.8027</t>
+          <t>2.2370</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10.6797</t>
+          <t>8.1466</t>
         </is>
       </c>
     </row>
@@ -708,22 +708,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.9980</t>
+          <t>0.9969</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.8574</t>
+          <t>0.9133</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.6387</t>
+          <t>4.5100</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>27.2535</t>
+          <t>21.2483</t>
         </is>
       </c>
     </row>
@@ -750,22 +750,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.9692</t>
+          <t>0.9696</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.5739</t>
+          <t>0.7441</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2370</t>
+          <t>0.2355</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.6796</t>
+          <t>0.5266</t>
         </is>
       </c>
     </row>
@@ -792,22 +792,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.9534</t>
+          <t>0.9593</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.3529</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0204</t>
+          <t>0.0191</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.0886</t>
+          <t>0.0714</t>
         </is>
       </c>
     </row>
@@ -834,22 +834,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.9533</t>
+          <t>0.9503</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.1167</t>
+          <t>0.3155</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1863</t>
+          <t>0.1923</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.7029</t>
+          <t>0.6187</t>
         </is>
       </c>
     </row>
@@ -876,22 +876,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.8945</t>
+          <t>0.9254</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1448534589722500441491636224.0000</t>
+          <t>-1688803134258078122934009856.0000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0168</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0365</t>
         </is>
       </c>
     </row>
@@ -918,22 +918,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.9552</t>
+          <t>0.9680</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.1772</t>
+          <t>0.4234</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7.4153</t>
+          <t>6.2694</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>28.7599</t>
+          <t>24.0771</t>
         </is>
       </c>
     </row>
@@ -960,22 +960,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.9564</t>
+          <t>0.9672</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.1803</t>
+          <t>0.4467</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16.9292</t>
+          <t>14.6898</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>65.3491</t>
+          <t>53.6903</t>
         </is>
       </c>
     </row>
@@ -1002,22 +1002,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.4003</t>
+          <t>-14.5095</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.4838</t>
+          <t>-17.4017</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.0459</t>
+          <t>5.3190</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.2682</t>
+          <t>4.4661</t>
         </is>
       </c>
     </row>
@@ -1044,22 +1044,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-97.4604</t>
+          <t>-257.8451</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-156.7613</t>
+          <t>-257.1084</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.9379</t>
+          <t>1.5207</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.1152</t>
+          <t>1.4264</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.6071</t>
+          <t>-475.0838</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.4365</t>
+          <t>-626.4586</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.5406</t>
+          <t>18.8154</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.8964</t>
+          <t>18.7341</t>
         </is>
       </c>
     </row>
@@ -1128,22 +1128,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-77.8101</t>
+          <t>-3331.0823</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-273579308249733940280008114176.0000</t>
+          <t>-10034198317878925598349135446016.0000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.4602</t>
+          <t>2.9924</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.4646</t>
+          <t>2.8135</t>
         </is>
       </c>
     </row>
@@ -1170,22 +1170,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-2.8241</t>
+          <t>-4.9697</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-5.2464</t>
+          <t>-6.4576</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>68.5007</t>
+          <t>85.5865</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>79.2436</t>
+          <t>86.5858</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1212,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.8568</t>
+          <t>-0.0285</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.8229</t>
+          <t>-0.2084</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>30.6781</t>
+          <t>82.2292</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>30.3739</t>
+          <t>79.3421</t>
         </is>
       </c>
     </row>
@@ -1254,22 +1254,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.9976</t>
+          <t>0.9975</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.5154</t>
+          <t>0.4837</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0663</t>
+          <t>0.0678</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.7248</t>
+          <t>0.7481</t>
         </is>
       </c>
     </row>
@@ -1296,22 +1296,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.9986</t>
+          <t>0.9949</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.7499</t>
+          <t>0.7289</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.0462</t>
         </is>
       </c>
     </row>
@@ -1338,22 +1338,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.9963</t>
+          <t>0.9927</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.4920</t>
+          <t>0.5466</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0523</t>
+          <t>0.0735</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.5331</t>
+          <t>0.5036</t>
         </is>
       </c>
     </row>
@@ -1380,22 +1380,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.9978</t>
+          <t>0.9951</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-1938263085105268776067137536.0000</t>
+          <t>-1442234449758947543430987776.0000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0337</t>
         </is>
       </c>
     </row>
@@ -1422,22 +1422,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.9986</t>
+          <t>0.9971</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.9386</t>
+          <t>0.9252</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.2898</t>
+          <t>1.8836</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>7.8577</t>
+          <t>8.6717</t>
         </is>
       </c>
     </row>
@@ -1464,22 +1464,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.9992</t>
+          <t>0.9982</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.9368</t>
+          <t>0.9192</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.3231</t>
+          <t>3.4815</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>18.1470</t>
+          <t>20.5166</t>
         </is>
       </c>
     </row>
@@ -1506,22 +1506,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.9650</t>
+          <t>0.9551</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.6356</t>
+          <t>0.6885</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.2528</t>
+          <t>0.2863</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.6284</t>
+          <t>0.5811</t>
         </is>
       </c>
     </row>
@@ -1548,22 +1548,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.9936</t>
+          <t>0.9935</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.5989</t>
+          <t>0.6053</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.0562</t>
+          <t>0.0558</t>
         </is>
       </c>
     </row>
@@ -1590,22 +1590,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.9707</t>
+          <t>0.9632</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.1968</t>
+          <t>0.1787</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.1476</t>
+          <t>0.1654</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.6703</t>
+          <t>0.6778</t>
         </is>
       </c>
     </row>
@@ -1632,22 +1632,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.9545</t>
+          <t>0.9563</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-513008446753996162331574272.0000</t>
+          <t>-543042014820952546562015232.0000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.0207</t>
         </is>
       </c>
     </row>
@@ -1674,22 +1674,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.9955</t>
+          <t>0.9950</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.6495</t>
+          <t>0.6662</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2.3471</t>
+          <t>2.4675</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>18.7718</t>
+          <t>18.3178</t>
         </is>
       </c>
     </row>
@@ -1716,22 +1716,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.9959</t>
+          <t>0.9949</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.6418</t>
+          <t>0.6580</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5.1718</t>
+          <t>5.7839</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>43.2009</t>
+          <t>42.2099</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1758,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-0.4791</t>
+          <t>0.1714</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.3123</t>
+          <t>0.1916</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.6426</t>
+          <t>1.2294</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1.1927</t>
+          <t>0.9361</t>
         </is>
       </c>
     </row>
@@ -1800,22 +1800,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-2.3111</t>
+          <t>-10.5794</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-1.5132</t>
+          <t>-9.2716</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.1720</t>
+          <t>0.3216</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.1408</t>
+          <t>0.2846</t>
         </is>
       </c>
     </row>
@@ -1842,22 +1842,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-0.5590</t>
+          <t>-2.6324</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-1.8864</t>
+          <t>-4.5037</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.0767</t>
+          <t>1.6435</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1.2706</t>
+          <t>1.7546</t>
         </is>
       </c>
     </row>
@@ -1884,22 +1884,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-77.3012</t>
+          <t>-45.9674</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-199208112945444690702708506624.0000</t>
+          <t>-126438958638956528120969035776.0000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.4587</t>
+          <t>0.3553</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.3964</t>
+          <t>0.3158</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1926,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.2605</t>
+          <t>0.5080</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-0.1248</t>
+          <t>0.2198</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30.1230</t>
+          <t>24.5699</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>33.6273</t>
+          <t>28.0060</t>
         </is>
       </c>
     </row>
@@ -1968,22 +1968,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.8976</t>
+          <t>0.9713</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.6358</t>
+          <t>0.7735</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>25.9502</t>
+          <t>13.7326</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>43.5558</t>
+          <t>34.3544</t>
         </is>
       </c>
     </row>
@@ -2010,22 +2010,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.9976</t>
+          <t>0.9957</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.5154</t>
+          <t>0.5847</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0663</t>
+          <t>0.0881</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.7248</t>
+          <t>0.6709</t>
         </is>
       </c>
     </row>
@@ -2052,22 +2052,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.9986</t>
+          <t>0.9973</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.7499</t>
+          <t>0.7953</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.0402</t>
         </is>
       </c>
     </row>
@@ -2094,22 +2094,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.9963</t>
+          <t>0.9924</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.4920</t>
+          <t>0.5015</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0523</t>
+          <t>0.0751</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.5331</t>
+          <t>0.5280</t>
         </is>
       </c>
     </row>
@@ -2136,22 +2136,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.9978</t>
+          <t>0.9965</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-1938263085105277297282252800.0000</t>
+          <t>-566787363592157055114280960.0000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0211</t>
         </is>
       </c>
     </row>
@@ -2178,22 +2178,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.9986</t>
+          <t>0.9985</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.9386</t>
+          <t>0.9433</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.2898</t>
+          <t>1.3654</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>7.8577</t>
+          <t>7.5484</t>
         </is>
       </c>
     </row>
@@ -2220,22 +2220,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.9992</t>
+          <t>0.9991</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.9368</t>
+          <t>0.9431</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2.3231</t>
+          <t>2.4199</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>18.1470</t>
+          <t>17.2188</t>
         </is>
       </c>
     </row>
@@ -2262,22 +2262,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.9702</t>
+          <t>0.9860</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.6096</t>
+          <t>0.6739</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.2333</t>
+          <t>0.1598</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.6506</t>
+          <t>0.5945</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2304,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.9930</t>
+          <t>0.9953</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.5324</t>
+          <t>0.9402</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.0607</t>
+          <t>0.0217</t>
         </is>
       </c>
     </row>
@@ -2346,22 +2346,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.9664</t>
+          <t>0.9581</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.1378</t>
+          <t>0.8023</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.1581</t>
+          <t>0.1765</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.6945</t>
+          <t>0.3326</t>
         </is>
       </c>
     </row>
@@ -2388,22 +2388,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.9490</t>
+          <t>0.9380</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-718660378744864286787502080.0000</t>
+          <t>-645624201854749122177794048.0000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.0238</t>
+          <t>0.0226</t>
         </is>
       </c>
     </row>
@@ -2430,22 +2430,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.9946</t>
+          <t>0.9989</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.6002</t>
+          <t>0.9806</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2.5645</t>
+          <t>1.1678</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>20.0481</t>
+          <t>4.4138</t>
         </is>
       </c>
     </row>
@@ -2472,22 +2472,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.9948</t>
+          <t>0.9992</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.5872</t>
+          <t>0.9906</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>5.8361</t>
+          <t>2.2803</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>46.3720</t>
+          <t>7.0063</t>
         </is>
       </c>
     </row>
@@ -2514,22 +2514,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.7982</t>
+          <t>0.7053</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-33.3068</t>
+          <t>0.1934</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.6067</t>
+          <t>0.7332</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>6.0981</t>
+          <t>0.9350</t>
         </is>
       </c>
     </row>
@@ -2556,22 +2556,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-24.8098</t>
+          <t>-8.4307</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-11012.7677</t>
+          <t>-14.3596</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.4802</t>
+          <t>0.2903</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>9.3177</t>
+          <t>0.3480</t>
         </is>
       </c>
     </row>
@@ -2598,22 +2598,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.8196</t>
+          <t>-0.1895</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-62.5185</t>
+          <t>-0.6690</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.3662</t>
+          <t>0.9405</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>5.9606</t>
+          <t>0.9662</t>
         </is>
       </c>
     </row>
@@ -2640,22 +2640,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-2858.1719</t>
+          <t>-26.0639</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-67433269815363215105485170540544.0000</t>
+          <t>-111800872278630730353550032896.0000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2.7719</t>
+          <t>0.2697</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>7.2935</t>
+          <t>0.2970</t>
         </is>
       </c>
     </row>
@@ -2682,22 +2682,22 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.9991</t>
+          <t>0.8581</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-285.9257</t>
+          <t>0.8223</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.0701</t>
+          <t>13.1932</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>537.0726</t>
+          <t>13.3652</t>
         </is>
       </c>
     </row>
@@ -2724,22 +2724,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.9998</t>
+          <t>0.9619</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.5367</t>
+          <t>0.8680</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.0182</t>
+          <t>15.8348</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>49.1266</t>
+          <t>26.2200</t>
         </is>
       </c>
     </row>
@@ -2766,22 +2766,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.9995</t>
+          <t>0.9978</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.6848</t>
+          <t>0.6753</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0636</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.5845</t>
+          <t>0.5932</t>
         </is>
       </c>
     </row>
@@ -2808,22 +2808,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.9992</t>
+          <t>0.9987</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.8587</t>
+          <t>0.8617</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.0334</t>
+          <t>0.0330</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2850,22 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.9984</t>
+          <t>0.9977</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.5192</t>
+          <t>0.5045</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.0343</t>
+          <t>0.0410</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.5186</t>
+          <t>0.5265</t>
         </is>
       </c>
     </row>
@@ -2892,22 +2892,22 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.9992</t>
+          <t>0.9989</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-322708003196982476677316608.0000</t>
+          <t>-353191823181768259100737536.0000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.0160</t>
+          <t>0.0167</t>
         </is>
       </c>
     </row>
@@ -2934,22 +2934,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.9997</t>
+          <t>0.9996</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.9444</t>
+          <t>0.9431</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.5547</t>
+          <t>0.6587</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>7.4773</t>
+          <t>7.5600</t>
         </is>
       </c>
     </row>
@@ -2981,17 +2981,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.9480</t>
+          <t>0.9474</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.3055</t>
+          <t>1.4181</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>16.4519</t>
+          <t>16.5561</t>
         </is>
       </c>
     </row>
@@ -3018,22 +3018,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.9763</t>
+          <t>0.9668</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.7121</t>
+          <t>0.7138</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.2079</t>
+          <t>0.2462</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.5586</t>
+          <t>0.5570</t>
         </is>
       </c>
     </row>
@@ -3060,22 +3060,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.9939</t>
+          <t>0.9918</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.9356</t>
+          <t>0.9077</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.0225</t>
+          <t>0.0270</t>
         </is>
       </c>
     </row>
@@ -3102,22 +3102,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.9606</t>
+          <t>0.9613</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.7154</t>
+          <t>0.7603</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.1712</t>
+          <t>0.1697</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.3990</t>
+          <t>0.3662</t>
         </is>
       </c>
     </row>
@@ -3144,22 +3144,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.9269</t>
+          <t>0.9179</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-431683785170114036862287872.0000</t>
+          <t>-556401101915615505848205312.0000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0210</t>
         </is>
       </c>
     </row>
@@ -3186,22 +3186,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.9976</t>
+          <t>0.9963</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.9802</t>
+          <t>0.9765</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.7247</t>
+          <t>2.1279</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4.4632</t>
+          <t>4.8578</t>
         </is>
       </c>
     </row>
@@ -3228,22 +3228,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.9984</t>
+          <t>0.9968</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.9888</t>
+          <t>0.9848</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3.2612</t>
+          <t>4.5712</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>7.6282</t>
+          <t>8.8946</t>
         </is>
       </c>
     </row>
@@ -3270,22 +3270,22 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-0.9277</t>
+          <t>-0.3050</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-4.7968</t>
+          <t>-1.6722</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.8752</t>
+          <t>1.5429</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2.5067</t>
+          <t>1.7019</t>
         </is>
       </c>
     </row>
@@ -3312,22 +3312,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.0493</t>
+          <t>-0.7379</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-0.4438</t>
+          <t>-2.4830</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.0922</t>
+          <t>0.1246</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.1067</t>
+          <t>0.1657</t>
         </is>
       </c>
     </row>
@@ -3354,22 +3354,22 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-0.1471</t>
+          <t>-0.1320</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-2.0172</t>
+          <t>-1.1832</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.9236</t>
+          <t>0.9175</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1.2991</t>
+          <t>1.1051</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3396,22 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-28.8478</t>
+          <t>-11.2280</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-510152042896964441373795155968.0000</t>
+          <t>-93937785317272432487849525248.0000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.2832</t>
+          <t>0.1813</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.6344</t>
+          <t>0.2722</t>
         </is>
       </c>
     </row>
@@ -3438,22 +3438,22 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-8.9092</t>
+          <t>-10.3343</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-44.7312</t>
+          <t>-27.3010</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>110.2675</t>
+          <t>117.9300</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>214.4147</t>
+          <t>168.6743</t>
         </is>
       </c>
     </row>
@@ -3480,22 +3480,22 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-0.3590</t>
+          <t>-0.4210</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>80.8554</t>
+          <t>79.7478</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>84.1417</t>
+          <t>86.0412</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -508,12 +508,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0975</t>
+          <t>0.0722</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.7357</t>
+          <t>0.5447</t>
         </is>
       </c>
     </row>
@@ -550,12 +550,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0852</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.0488</t>
+          <t>0.5163</t>
         </is>
       </c>
     </row>
@@ -592,12 +592,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0728</t>
+          <t>0.0844</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.5339</t>
+          <t>0.6191</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-619747327145638493914398720.0000</t>
+          <t>-14759858467383858671794092244992.0000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0856</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.0221</t>
+          <t>0.4265</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.2370</t>
+          <t>0.0639</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.1466</t>
+          <t>0.2326</t>
         </is>
       </c>
     </row>
@@ -718,12 +718,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.5100</t>
+          <t>0.0556</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21.2483</t>
+          <t>0.2621</t>
         </is>
       </c>
     </row>
@@ -750,22 +750,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.9696</t>
+          <t>0.9537</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.7441</t>
+          <t>0.6941</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2355</t>
+          <t>0.2153</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.5266</t>
+          <t>0.4264</t>
         </is>
       </c>
     </row>
@@ -792,22 +792,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.9593</t>
+          <t>0.9625</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.3529</t>
+          <t>0.2358</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0191</t>
+          <t>0.1935</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.0714</t>
+          <t>0.8211</t>
         </is>
       </c>
     </row>
@@ -834,22 +834,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.9503</t>
+          <t>0.9483</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.3155</t>
+          <t>0.3187</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1923</t>
+          <t>0.2275</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.6187</t>
+          <t>0.7159</t>
         </is>
       </c>
     </row>
@@ -876,22 +876,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.9254</t>
+          <t>0.9443</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1688803134258078122934009856.0000</t>
+          <t>-38569239967944559916522607214592.0000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.2360</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.0365</t>
+          <t>0.6895</t>
         </is>
       </c>
     </row>
@@ -918,22 +918,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.9680</t>
+          <t>0.9655</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.4234</t>
+          <t>0.2631</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6.2694</t>
+          <t>0.1858</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>24.0771</t>
+          <t>0.7770</t>
         </is>
       </c>
     </row>
@@ -960,22 +960,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.9672</t>
+          <t>0.9667</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.4467</t>
+          <t>0.2994</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14.6898</t>
+          <t>0.1826</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>53.6903</t>
+          <t>0.7451</t>
         </is>
       </c>
     </row>
@@ -1002,22 +1002,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-14.5095</t>
+          <t>-28.9927</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-17.4017</t>
+          <t>-139.4269</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5.3190</t>
+          <t>5.4766</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4.4661</t>
+          <t>9.1347</t>
         </is>
       </c>
     </row>
@@ -1044,22 +1044,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-257.8451</t>
+          <t>-35.6358</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-257.1084</t>
+          <t>-174.9528</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.5207</t>
+          <t>6.0527</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.4264</t>
+          <t>12.4600</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-475.0838</t>
+          <t>-29.0263</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-626.4586</t>
+          <t>-152.1847</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18.8154</t>
+          <t>5.4796</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>18.7341</t>
+          <t>10.7343</t>
         </is>
       </c>
     </row>
@@ -1128,22 +1128,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-3331.0823</t>
+          <t>-39.9428</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-10034198317878925598349135446016.0000</t>
+          <t>-5460693282305137457966782751965184.0000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.9924</t>
+          <t>6.3987</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2.8135</t>
+          <t>8.2042</t>
         </is>
       </c>
     </row>
@@ -1170,22 +1170,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-4.9697</t>
+          <t>-88.3604</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-6.4576</t>
+          <t>-342.2021</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>85.5865</t>
+          <t>9.4531</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>86.5858</t>
+          <t>16.7686</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1212,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-0.0285</t>
+          <t>-25.3493</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-0.2084</t>
+          <t>-31.6817</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>82.2292</t>
+          <t>5.1332</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>79.3421</t>
+          <t>5.0891</t>
         </is>
       </c>
     </row>
@@ -1506,22 +1506,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.9551</t>
+          <t>0.9540</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.6885</t>
+          <t>0.6720</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.2863</t>
+          <t>0.2896</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.5811</t>
+          <t>0.5963</t>
         </is>
       </c>
     </row>
@@ -1548,22 +1548,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.9935</t>
+          <t>0.9923</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.6053</t>
+          <t>0.5744</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.0558</t>
+          <t>0.0579</t>
         </is>
       </c>
     </row>
@@ -1590,22 +1590,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.9632</t>
+          <t>0.9678</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.1787</t>
+          <t>0.1848</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.1654</t>
+          <t>0.1547</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.6778</t>
+          <t>0.6753</t>
         </is>
       </c>
     </row>
@@ -1632,22 +1632,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.9563</t>
+          <t>0.9514</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-543042014820952546562015232.0000</t>
+          <t>-606814591170894908606119936.0000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.0207</t>
+          <t>0.0219</t>
         </is>
       </c>
     </row>
@@ -1674,22 +1674,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.9950</t>
+          <t>0.9949</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.6662</t>
+          <t>0.6553</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2.4675</t>
+          <t>2.5061</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>18.3178</t>
+          <t>18.6161</t>
         </is>
       </c>
     </row>
@@ -1716,22 +1716,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.9949</t>
+          <t>0.9943</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.6580</t>
+          <t>0.6451</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5.7839</t>
+          <t>6.1260</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>42.2099</t>
+          <t>43.0010</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1758,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.1714</t>
+          <t>-35.2217</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.1916</t>
+          <t>-51.9333</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.2294</t>
+          <t>8.1286</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.9361</t>
+          <t>7.5747</t>
         </is>
       </c>
     </row>
@@ -1800,22 +1800,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-10.5794</t>
+          <t>-234.2320</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-9.2716</t>
+          <t>-280.2500</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.3216</t>
+          <t>1.4497</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.2846</t>
+          <t>1.4890</t>
         </is>
       </c>
     </row>
@@ -1842,22 +1842,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-2.6324</t>
+          <t>-5.4713</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-4.5037</t>
+          <t>-11.6192</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.6435</t>
+          <t>2.1937</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1.7546</t>
+          <t>2.6568</t>
         </is>
       </c>
     </row>
@@ -1884,22 +1884,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-45.9674</t>
+          <t>-632.3691</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-126438958638956528120969035776.0000</t>
+          <t>-2243460466628037625803758895104.0000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.3553</t>
+          <t>1.3046</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.3158</t>
+          <t>1.3303</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1926,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.5080</t>
+          <t>-4.8161</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.2198</t>
+          <t>-4.1366</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>24.5699</t>
+          <t>84.4777</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>28.0060</t>
+          <t>71.8596</t>
         </is>
       </c>
     </row>
@@ -1968,22 +1968,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.9713</t>
+          <t>0.0447</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.7735</t>
+          <t>-0.6443</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13.7326</t>
+          <t>79.2486</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>34.3544</t>
+          <t>92.5543</t>
         </is>
       </c>
     </row>
@@ -2262,22 +2262,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.9860</t>
+          <t>0.9818</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.6739</t>
+          <t>0.6135</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.1598</t>
+          <t>0.1821</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.5945</t>
+          <t>0.6473</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2304,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.9953</t>
+          <t>0.9936</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.9402</t>
+          <t>0.9350</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0226</t>
         </is>
       </c>
     </row>
@@ -2346,22 +2346,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.9581</t>
+          <t>0.9673</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.8023</t>
+          <t>0.8188</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.1765</t>
+          <t>0.1560</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.3326</t>
+          <t>0.3184</t>
         </is>
       </c>
     </row>
@@ -2388,22 +2388,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.9380</t>
+          <t>0.9481</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-645624201854749122177794048.0000</t>
+          <t>-571222862779845755489222656.0000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.0226</t>
+          <t>0.0212</t>
         </is>
       </c>
     </row>
@@ -2430,22 +2430,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.9989</t>
+          <t>0.9983</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.9806</t>
+          <t>0.9783</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.1678</t>
+          <t>1.4546</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4.4138</t>
+          <t>4.6716</t>
         </is>
       </c>
     </row>
@@ -2472,22 +2472,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.9992</t>
+          <t>0.9987</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.9906</t>
+          <t>0.9877</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.2803</t>
+          <t>2.8947</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>7.0063</t>
+          <t>7.9897</t>
         </is>
       </c>
     </row>
@@ -2514,22 +2514,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.7053</t>
+          <t>-322.7257</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.1934</t>
+          <t>-567.4379</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.7332</t>
+          <t>24.3007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.9350</t>
+          <t>24.8223</t>
         </is>
       </c>
     </row>
@@ -2556,22 +2556,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-8.4307</t>
+          <t>-2250.4870</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-14.3596</t>
+          <t>-2517.0253</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.2903</t>
+          <t>4.4849</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.3480</t>
+          <t>4.4552</t>
         </is>
       </c>
     </row>
@@ -2598,22 +2598,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-0.1895</t>
+          <t>-1.0339</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-0.6690</t>
+          <t>-3.0184</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.9405</t>
+          <t>1.2298</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.9662</t>
+          <t>1.4992</t>
         </is>
       </c>
     </row>
@@ -2640,22 +2640,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-26.0639</t>
+          <t>-2458.0909</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-111800872278630730353550032896.0000</t>
+          <t>-7847046851351305463349016264704.0000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.2697</t>
+          <t>2.5707</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.2970</t>
+          <t>2.4880</t>
         </is>
       </c>
     </row>
@@ -2682,22 +2682,22 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.8581</t>
+          <t>-1.7308</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.8223</t>
+          <t>-0.5506</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>13.1932</t>
+          <t>57.8858</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>13.3652</t>
+          <t>39.4822</t>
         </is>
       </c>
     </row>
@@ -2724,22 +2724,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.9619</t>
+          <t>0.0166</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.8680</t>
+          <t>-0.4687</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15.8348</t>
+          <t>80.4050</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>26.2200</t>
+          <t>87.4713</t>
         </is>
       </c>
     </row>
@@ -3018,22 +3018,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.9668</t>
+          <t>0.9655</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.7138</t>
+          <t>0.6487</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.2462</t>
+          <t>0.2508</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.5570</t>
+          <t>0.6171</t>
         </is>
       </c>
     </row>
@@ -3060,22 +3060,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.9918</t>
+          <t>0.9922</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.9077</t>
+          <t>0.9227</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.0270</t>
+          <t>0.0247</t>
         </is>
       </c>
     </row>
@@ -3102,22 +3102,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.9613</t>
+          <t>0.9534</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.7603</t>
+          <t>0.7020</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.1697</t>
+          <t>0.1861</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.3662</t>
+          <t>0.4083</t>
         </is>
       </c>
     </row>
@@ -3144,22 +3144,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.9179</t>
+          <t>0.9165</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-556401101915615505848205312.0000</t>
+          <t>-478976903717068331559157760.0000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.0149</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.0194</t>
         </is>
       </c>
     </row>
@@ -3186,22 +3186,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.9963</t>
+          <t>0.9973</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.9765</t>
+          <t>0.9794</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2.1279</t>
+          <t>1.8109</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4.8578</t>
+          <t>4.5542</t>
         </is>
       </c>
     </row>
@@ -3228,22 +3228,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.9968</t>
+          <t>0.9981</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.9848</t>
+          <t>0.9887</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4.5712</t>
+          <t>3.4877</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>8.8946</t>
+          <t>7.6682</t>
         </is>
       </c>
     </row>
@@ -3270,22 +3270,22 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-0.3050</t>
+          <t>-0.3099</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-1.6722</t>
+          <t>-1.7013</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.5429</t>
+          <t>1.5458</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1.7019</t>
+          <t>1.7112</t>
         </is>
       </c>
     </row>
@@ -3312,22 +3312,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-0.7379</t>
+          <t>-0.3794</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-2.4830</t>
+          <t>-1.9484</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.1246</t>
+          <t>0.1110</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.1657</t>
+          <t>0.1525</t>
         </is>
       </c>
     </row>
@@ -3354,22 +3354,22 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-0.1320</t>
+          <t>-0.1180</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-1.1832</t>
+          <t>-1.1131</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.9175</t>
+          <t>0.9118</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1.1051</t>
+          <t>1.0872</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3396,22 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-11.2280</t>
+          <t>-12.3325</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-93937785317272432487849525248.0000</t>
+          <t>-186963206156396746846565826560.0000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.1813</t>
+          <t>0.1893</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.2722</t>
+          <t>0.3840</t>
         </is>
       </c>
     </row>
@@ -3438,22 +3438,22 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-10.3343</t>
+          <t>-10.3724</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-27.3010</t>
+          <t>-27.3724</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>117.9300</t>
+          <t>118.1285</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>168.6743</t>
+          <t>168.8871</t>
         </is>
       </c>
     </row>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-0.4210</t>
+          <t>-0.4208</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>79.7478</t>
+          <t>79.7494</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>86.0412</t>
+          <t>86.0346</t>
         </is>
       </c>
     </row>
